--- a/Raw files GPS/Raw files GPS Zagłębie/środa/wyniki/wyniki_Abrahamsson_29.01.2025_3.xlsx
+++ b/Raw files GPS/Raw files GPS Zagłębie/środa/wyniki/wyniki_Abrahamsson_29.01.2025_3.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,130 +463,297 @@
           <t>Velocity_Bin</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Trening</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:13:10.26</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>45686.4762449074</v>
       </c>
       <c r="B2" t="n">
-        <v>4038.1</v>
+        <v>1195.4</v>
       </c>
       <c r="C2" t="n">
-        <v>12.81</v>
+        <v>10.2</v>
       </c>
       <c r="D2" t="n">
-        <v>3.877632924488612</v>
+        <v>0.6324317455291748</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>10-15</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:13:25.66</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>45686.47625648148</v>
       </c>
       <c r="B3" t="n">
-        <v>4053.5</v>
+        <v>1196.4</v>
       </c>
       <c r="C3" t="n">
-        <v>14.61</v>
+        <v>10.87</v>
       </c>
       <c r="D3" t="n">
-        <v>3.78713481766837</v>
+        <v>0.07279676584792982</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>10-15</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:15:29.46</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>45686.47626805556</v>
       </c>
       <c r="B4" t="n">
-        <v>4177.3</v>
+        <v>1197.4</v>
       </c>
       <c r="C4" t="n">
-        <v>13.5</v>
+        <v>10.37</v>
       </c>
       <c r="D4" t="n">
-        <v>3.682383264814104</v>
+        <v>-0.2498368876320974</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>10-15</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:13:10.06</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>45686.4758212963</v>
       </c>
       <c r="B5" t="n">
-        <v>4037.9</v>
+        <v>1158.8</v>
       </c>
       <c r="C5" t="n">
-        <v>9.630000000000001</v>
+        <v>7.42</v>
       </c>
       <c r="D5" t="n">
-        <v>3.611971514565604</v>
+        <v>2.294765676770891</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>5-10</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:13:52.36</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>45686.47597986111</v>
       </c>
       <c r="B6" t="n">
-        <v>4080.2</v>
+        <v>1172.5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.32</v>
+        <v>6.17</v>
       </c>
       <c r="D6" t="n">
-        <v>3.324895995003836</v>
+        <v>2.082028763634818</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>5-10</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:42:08.86</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>45686.47734791667</v>
       </c>
       <c r="B7" t="n">
-        <v>5776.7</v>
+        <v>1290.7</v>
       </c>
       <c r="C7" t="n">
-        <v>9.720000000000001</v>
+        <v>6.62</v>
       </c>
       <c r="D7" t="n">
-        <v>3.274593932288032</v>
+        <v>2.100573863301959</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>5-10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45686.48793819444</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2205.7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>14.74</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.32965908731733</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45686.48802962963</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2213.6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>14.42</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.529272590364729</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45686.49819050926</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3091.5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.026102747235979</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45686.49735486111</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3019.3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.834098151751926</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45686.49802615741</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3077.3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.9823728288923</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45686.49818935185</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3091.4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.861110533986773</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
         </is>
       </c>
     </row>
